--- a/YP.CodeGen/DesignExcel/TestDb.xlsx
+++ b/YP.CodeGen/DesignExcel/TestDb.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -41,10 +37,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>自增ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UserName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -53,10 +45,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -69,18 +57,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户邮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EnumUserType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -94,10 +74,6 @@
   </si>
   <si>
     <t>是否为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -147,6 +123,42 @@
   <si>
     <t>Admin:管理员
 Normal:普通用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IList&lt;UserLogging&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -416,6 +428,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -425,12 +449,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,12 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -752,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I3" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -765,43 +777,43 @@
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="10" width="14.625" customWidth="1"/>
     <col min="11" max="11" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -811,31 +823,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -846,29 +858,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="19" t="str">
+      <c r="F4" s="13" t="str">
         <f>B4</f>
         <v>Id</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="11">
         <v>0</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -877,30 +889,30 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="19" t="str">
-        <f t="shared" ref="G5:G7" si="0">B5</f>
+      <c r="F5" s="13" t="str">
+        <f t="shared" ref="F5:F7" si="0">B5</f>
         <v>UserName</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="11">
         <v>1</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -909,30 +921,30 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="19" t="str">
+      <c r="F6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>UserEmail</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="11">
         <v>0</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="K6" s="4"/>
     </row>
@@ -941,40 +953,61 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="19" t="str">
+      <c r="F7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Type</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="14">
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="J8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:K2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
